--- a/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52E4F4-6F99-1F45-858E-7D4E0AD9A514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756EA91-DDD5-EC4A-AE8F-1905A67D907E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总预算" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -402,28 +402,6 @@
         <charset val="134"/>
       </rPr>
       <t>软件测试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>材料费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>（系统开发设备、电子耗材、办公用品）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,12 +953,6 @@
       </rPr>
       <t>收集等）</t>
     </r>
-  </si>
-  <si>
-    <t>存储盘：8* 希捷(Seagate)12TB 企业级硬盘
-型号：希捷银河Exos 7E8系列
-接口：SATA接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显卡：Nvidia V100
@@ -1016,225 +988,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>软件环境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:windows10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作系统</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>缓存盘：2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">* 2TB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PCIE接口 数据中心企业级固态硬盘
-品牌：英特尔     型号：DC P4600 SSDPEDKE020T701
-性能描述：读3290MB/s  写1650MB/s</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>系统盘：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2* 240G </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>企业级固态硬盘（Raid1）
-品牌：英特尔     型号：S4510 SSDSC2KB240G801
-性能描述：读560MB/s   写510MB/s</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>内存：4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">* 32GB R-ECC DDR4 2400MHz </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器内存 支持高级内存纠错、内存镜像</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">英特尔 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XEON E5-2620V4/8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/2.1GHz-3.0GHz</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>思腾合力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>IR2200</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据存储服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例图</t>
-  </si>
-  <si>
     <t>总价(元)</t>
   </si>
   <si>
@@ -1350,6 +1103,23 @@
       </rPr>
       <t>元，共计约13人次</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记本电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储盘：4* 希捷(Seagate)12TB 企业级硬盘
+型号：希捷银河Exos 7E8系列
+接口：SATA接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想ThinkPad 翼480 英特尔酷睿i7 14英寸轻薄窄边框笔记本电脑（i7-8550U 8G 128GSSD+1T 2G独显 FHD）银</t>
+  </si>
+  <si>
+    <t>材料费（系统开发设备、电子耗材、办公用品）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,7 +1130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1537,13 +1307,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1587,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1825,19 +1588,6 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -1952,6 +1702,45 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -1966,7 +1755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2073,27 +1862,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,22 +1901,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="5" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2136,13 +1913,148 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2154,160 +2066,22 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2322,10 +2096,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2345,85 +2122,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>403860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DD6481-1CB8-4C78-9336-249DF3A43DC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8092440" y="403860"/>
-          <a:ext cx="3131820" cy="4381500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2749,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2771,30 +2469,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
+      <c r="A1" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2807,25 +2505,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="92"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="89" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="90"/>
+      <c r="D3" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="59"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2837,22 +2535,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="100">
+      <c r="J3" s="70">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="101"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="98"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="90"/>
+      <c r="D4" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="59"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2864,19 +2562,19 @@
         <f t="shared" ref="I4:I26" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="102"/>
-      <c r="K4" s="103"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2888,23 +2586,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="105"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2916,22 +2614,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="70">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="101"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="86"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="91"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2943,19 +2641,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="86"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="91"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2967,19 +2665,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="86"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="91"/>
+      <c r="D9" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2991,24 +2689,24 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>32</v>
+      <c r="B10" s="101" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>69</v>
+      <c r="D10" s="84" t="s">
+        <v>59</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
@@ -3021,24 +2719,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="104">
         <f>SUM(I10:I16)</f>
         <v>64.800000000000011</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="77">
         <f>SUM(J10:J26)</f>
         <v>132.95000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="64"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
@@ -3051,18 +2749,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="64"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -3075,18 +2773,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="58"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="64"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31">
@@ -3099,18 +2797,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="58"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="64"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31">
@@ -3123,18 +2821,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="58"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="64"/>
-      <c r="B15" s="61"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
@@ -3147,16 +2845,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="58"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="64"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -3171,20 +2869,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="64"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="63" t="s">
-        <v>72</v>
+      <c r="D17" s="84" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
@@ -3197,21 +2895,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="104">
         <f>SUM(I17:I19)</f>
         <v>36</v>
       </c>
-      <c r="K17" s="58"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="64"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="32">
@@ -3224,18 +2922,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="58"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="32">
@@ -3248,20 +2946,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="58"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A20" s="34"/>
-      <c r="B20" s="61"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="63" t="s">
-        <v>78</v>
+      <c r="D20" s="84" t="s">
+        <v>68</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="32">
@@ -3274,21 +2972,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="98">
         <f>SUM(I20:I23)</f>
         <v>28.4</v>
       </c>
-      <c r="K20" s="58"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A21" s="34"/>
-      <c r="B21" s="61"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="64"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="32">
@@ -3301,18 +2999,18 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="58"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A22" s="34"/>
-      <c r="B22" s="61"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="32">
@@ -3325,18 +3023,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="58"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A23" s="34"/>
-      <c r="B23" s="61"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="65"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="32">
@@ -3349,20 +3047,20 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="58"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A24" s="34"/>
-      <c r="B24" s="61"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="63" t="s">
-        <v>79</v>
+      <c r="D24" s="84" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="32">
@@ -3375,21 +3073,21 @@
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="104">
         <f>SUM(I24:I26)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="58"/>
+      <c r="K24" s="79"/>
     </row>
     <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A25" s="34"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="32">
@@ -3402,18 +3100,18 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J25" s="67"/>
-      <c r="K25" s="58"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="62"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="32">
@@ -3426,23 +3124,23 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="59"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="23"/>
       <c r="G27" s="24">
         <v>3</v>
@@ -3454,22 +3152,22 @@
         <f t="shared" ref="I27" si="1">G27*H27</f>
         <v>3</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="82">
         <f>SUM(I27:I28)</f>
         <v>9</v>
       </c>
-      <c r="K27" s="85"/>
+      <c r="K27" s="82"/>
     </row>
     <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="22">
         <v>2</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="23" t="s">
         <v>23</v>
       </c>
@@ -3483,29 +3181,29 @@
         <f>G28*H28</f>
         <v>6</v>
       </c>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
       <c r="N28" s="20">
         <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
         <v>240.95000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="77" t="s">
+      <c r="B29" s="93" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -3513,62 +3211,62 @@
         <f>N28*0.149425</f>
         <v>36.003953750000001</v>
       </c>
-      <c r="J29" s="82">
+      <c r="J29" s="76">
         <f>SUM(I29:I32)</f>
         <v>89.103953750000002</v>
       </c>
-      <c r="K29" s="57"/>
+      <c r="K29" s="77"/>
     </row>
     <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A30" s="67"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="69"/>
+      <c r="E30" s="98"/>
       <c r="F30" s="25" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19">
         <v>13</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="58"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
     </row>
     <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="67"/>
-      <c r="B31" s="78"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="81"/>
+      <c r="D31" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="100"/>
       <c r="F31" s="25"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28">
         <v>15.1</v>
       </c>
-      <c r="J31" s="83"/>
-      <c r="K31" s="58"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="68"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19">
         <v>25</v>
@@ -3580,26 +3278,26 @@
         <f>G32*H32</f>
         <v>25</v>
       </c>
-      <c r="J32" s="84"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="86">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="69">
         <f>SUM(N28,J29)</f>
         <v>330.05395375000001</v>
       </c>
-      <c r="K33" s="86"/>
+      <c r="K33" s="69"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4"/>
@@ -3775,6 +3473,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K10:K26"/>
+    <mergeCell ref="B10:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="J10:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="J29:K32"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3791,31 +3514,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D10:D16"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3825,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656BFDB5-BAC8-4BB0-8CB4-B3D4455992F3}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
@@ -3842,282 +3540,202 @@
     <col min="256" max="16384" width="7.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="53" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:11" s="49" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A1" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+    </row>
+    <row r="2" spans="1:11" ht="46.25" customHeight="1">
+      <c r="A2" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="114">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.25" customHeight="1">
+      <c r="A3" s="109"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="115"/>
+    </row>
+    <row r="4" spans="1:11" ht="54.5" customHeight="1">
+      <c r="A4" s="109"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="115"/>
+    </row>
+    <row r="5" spans="1:11" ht="54" customHeight="1">
+      <c r="A5" s="109"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="115"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="115"/>
+    </row>
+    <row r="7" spans="1:11" ht="48">
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="115"/>
+    </row>
+    <row r="8" spans="1:11" ht="45.5" customHeight="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-    </row>
-    <row r="2" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A2" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="112">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="49" customFormat="1" ht="38" customHeight="1" thickBot="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="112"/>
-    </row>
-    <row r="4" spans="1:11" s="49" customFormat="1" ht="63" customHeight="1" thickBot="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="112"/>
-    </row>
-    <row r="5" spans="1:11" s="49" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="112"/>
-    </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="41" customHeight="1" thickBot="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="46" t="s">
+      <c r="D8" s="115"/>
+    </row>
+    <row r="9" spans="1:11" ht="49.25" customHeight="1">
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="112"/>
-    </row>
-    <row r="7" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A7" s="109"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="45" t="s">
+      <c r="D9" s="115"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.25" customHeight="1">
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:11" s="49" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="51" t="s">
+      <c r="D10" s="115"/>
+    </row>
+    <row r="11" spans="1:11" ht="73.75" customHeight="1">
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="115"/>
+    </row>
+    <row r="12" spans="1:11" ht="69" customHeight="1">
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="115"/>
+    </row>
+    <row r="13" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A13" s="110"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="116"/>
+    </row>
+    <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A14" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="55">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A15" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
+      <c r="A17" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
+      <c r="A18" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="112"/>
-    </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" ht="60" customHeight="1" thickBot="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="111"/>
-      <c r="C9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="112"/>
-    </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="58" customHeight="1" thickBot="1">
-      <c r="A10" s="109"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="112"/>
-    </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="112"/>
-    </row>
-    <row r="12" spans="1:11" ht="46.25" customHeight="1">
-      <c r="A12" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="119">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="49.25" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="120"/>
-    </row>
-    <row r="14" spans="1:11" ht="54.5" customHeight="1">
-      <c r="A14" s="114"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="120"/>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="120"/>
-    </row>
-    <row r="16" spans="1:11" ht="36" customHeight="1">
-      <c r="A16" s="114"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="120"/>
-    </row>
-    <row r="17" spans="1:4" ht="48">
-      <c r="A17" s="114"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="120"/>
-    </row>
-    <row r="18" spans="1:4" ht="45.5" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="120"/>
-    </row>
-    <row r="19" spans="1:4" ht="49.25" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="120"/>
-    </row>
-    <row r="20" spans="1:4" ht="31.25" customHeight="1">
-      <c r="A20" s="114"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="120"/>
-    </row>
-    <row r="21" spans="1:4" ht="73.75" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="120"/>
-    </row>
-    <row r="22" spans="1:4" ht="69" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="120"/>
-    </row>
-    <row r="23" spans="1:4" ht="36" customHeight="1" thickBot="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="112"/>
-    </row>
-    <row r="24" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A24" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A25" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A26" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
-      <c r="A27" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="36">
-        <f>D2+D12+D24+D25+D26</f>
-        <v>235000</v>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="36">
+        <f>SUM(D17,D16,D15,D14,D2)</f>
+        <v>151000</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="A27:C27"/>
+  <mergeCells count="5">
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="D2:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756EA91-DDD5-EC4A-AE8F-1905A67D907E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FECF084-38C2-1745-BD80-2792D9906B8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总预算" sheetId="7" r:id="rId1"/>
-    <sheet name="材料费预算" sheetId="9" r:id="rId2"/>
+    <sheet name="软件开发预算" sheetId="7" r:id="rId1"/>
+    <sheet name="非矿设备配套预算" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -450,509 +450,11 @@
     <t>型号</t>
   </si>
   <si>
-    <t>详细参数</t>
-  </si>
-  <si>
-    <r>
-      <t>阵列卡：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>LSI 9361-8i 2G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大容量缓存 支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Raid0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>60</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IW2200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>准系统（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C612</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芯片组双路主板，最大支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘位热插拔，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>500W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冗余电源，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机架式）</t>
-    </r>
-  </si>
-  <si>
     <t>网络：双口万兆光纤网卡/含多模光模块</t>
   </si>
   <si>
     <t>总价(元)</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备材料的购置及运送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购置
-及运送费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼠标、键盘、机械硬盘等相关办公用品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公用品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>* 23.8英寸 AH-IPS广视角 127%sRGB广色域 1.5mm窄边框 
-全接口 24 快拆旋转升降支架 电脑显示器</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOC
-I2490PXZ </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>软件环境</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:Ubuntu16.04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作系统</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>资质：认证：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ISO9001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际质量管理体系，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NVIDIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>精英级合作伙伴（官网认证），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>NVIDIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>认证工程师；
-服务：厂家工程师三年免费质保服务；三年免费上门，终身软件维护服务。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>网络：双口千兆网卡（支持网络唤醒，网络冗余，负载均衡等网络高级特性，支持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I/O AT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加速技术），</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IPMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程管理口（支持远程开关机、温度监测、调整风扇转速、远程桌面、报错</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收集等）</t>
-    </r>
   </si>
   <si>
     <t>显卡：Nvidia V100
@@ -1106,20 +608,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔记本电脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储盘：4* 希捷(Seagate)12TB 企业级硬盘
 型号：希捷银河Exos 7E8系列
 接口：SATA接口</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>联想ThinkPad 翼480 英特尔酷睿i7 14英寸轻薄窄边框笔记本电脑（i7-8550U 8G 128GSSD+1T 2G独显 FHD）银</t>
-  </si>
-  <si>
     <t>材料费（系统开发设备、电子耗材、办公用品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思腾合力缓存服务器</t>
+  </si>
+  <si>
+    <t>IR2200</t>
+  </si>
+  <si>
+    <t>压力变送器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他电缆等材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于实时录入数据、运行大数据平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩菲提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU：2* 英特尔 XEON E5-2620V4/8核/16线程/2.1GHz-3.0GHz</t>
+  </si>
+  <si>
+    <t>内存：4* 32GB R-ECC DDR4 2400MHz 服务器内存 支持高级内存纠错、内存镜像</t>
+  </si>
+  <si>
+    <t>系统盘：2* 240G 企业级固态硬盘（Raid1）
+品牌：英特尔     型号：S4510 SSDSC2KB240G801
+性能描述：读560MB/s   写510MB/s</t>
+  </si>
+  <si>
+    <t>缓存盘：2* 2TB PCIE接口 数据中心企业级固态硬盘
+品牌：英特尔     型号：DC P4600 SSDPEDKE020T701
+性能描述：读3290MB/s  写1650MB/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵列卡：LSI 9361-8i 2G大容量缓存 支持Raid0、1、5、6、10、50、60</t>
+  </si>
+  <si>
+    <r>
+      <t>IW2200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准系统（C612芯片组双路主板，最大支持1T内存，12盘位热插拔，500W冗余电源，2U机架式）</t>
+    </r>
+  </si>
+  <si>
+    <t>网络：双口千兆网卡（支持网络唤醒，网络冗余，负载均衡等网络高级特性，支持I/O AT加速技术），1个IPMI远程管理口（支持远程开关机、温度监测、调整风扇转速、远程桌面、报错log收集等）</t>
+  </si>
+  <si>
+    <t>资质：认证：ISO9001国际质量管理体系，NVIDIA精英级合作伙伴（官网认证），10名NVIDIA认证工程师；
+服务：厂家工程师三年免费质保服务；三年免费上门，终身软件维护服务。</t>
+  </si>
+  <si>
+    <t>软件环境:操作系统根据客户要求安装。</t>
+  </si>
+  <si>
+    <t>软件环境:Ubuntu16.04操作系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>井下管道视频智能监控系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000万像素，网口，每秒2帧，价格8万，含镜头、光源和保护罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于监测搅拌机的膏体均匀度，架设在充填站二段搅拌机上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于监测井下管道压力，安装位置：
+（1）井下680ml
+区域一：钻孔底部，连接4个钻孔的每条管道安装一块压力变送器，用于监测钻孔内部料浆的高度，确定钻孔是否满管，需要4块压力变送器。
+区域二： 680ml-696ml充填钻孔上部水平段2条管路上，每条管路安装个压力变送器，需要2块压力变送器。
+区域三： 680-980ml充填钻孔上部水平段2条管路上安装2个压力变送器。
+（2）井下980 ml
+区域一：钻孔底部，连接2个钻孔的每条管道安装一块压力变送器，用于监测钻孔内部料浆的高度，确定钻孔是否满管，需要2块压力变送器。
+区域二： 980ml中段主进风巷与矿体下盘回/进风道交叉处的水平主管，用于监测980ml两个充填主管压力，需要2块压力变送器。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于井下管道监控
+安装位置：
+（1）井下680 ml，设1个监测点，监测地表至680ml钻孔底部管道实时状态，需要1个摄像头。
+（2）680ml水平管道，设置2个监测点，一个监测北采区方向，一个监测南采区方向，每个监测点2个摄像头，共需4个摄像头。
+（3）井下696ml，设1个监测点，监测680ml-696ml钻孔底部管道实时状态，需要1个摄像头。
+（4）井下980 ml，设1个监测点，监测680ml-980ml钻孔底部管道实时状态，需要1个摄像头。
+（5）井下980 m水平管道，设置1个监测点，设置2个摄像头。
+（6）充填站两台二段搅拌机上方，各1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿井摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通摄像头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEV-B6620M-TF097 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nikon Rayfact IL 40mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,39 +907,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1306,16 +914,81 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="微软雅黑"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="9"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="9"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1350,7 +1023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1509,253 +1182,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal style="medium">
-        <color indexed="8"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1859,68 +1296,55 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="5" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2069,42 +1493,25 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2445,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:F43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2469,30 +1876,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2505,25 +1912,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="63" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -2535,22 +1942,22 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="70">
+      <c r="J3" s="67">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="67"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="59"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="13"/>
       <c r="G4" s="29">
         <v>5</v>
@@ -2559,22 +1966,22 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="33">
-        <f t="shared" ref="I4:I26" si="0">G4*H4</f>
+        <f t="shared" ref="I4:I27" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -2586,23 +1993,23 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2614,22 +2021,22 @@
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="70">
+      <c r="J6" s="67">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="71"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="69"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="60"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2641,19 +2048,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="69"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="60"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="13"/>
       <c r="G8" s="33">
         <v>5</v>
@@ -2665,19 +2072,19 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="69"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="60"/>
+      <c r="D9" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="57"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2689,24 +2096,24 @@
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="98" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="84" t="s">
-        <v>59</v>
+      <c r="D10" s="81" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
@@ -2719,24 +2126,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="101">
         <f>SUM(I10:I16)</f>
         <v>64.800000000000011</v>
       </c>
-      <c r="K10" s="77">
-        <f>SUM(J10:J26)</f>
+      <c r="K10" s="74">
+        <f>SUM(J10:J27)</f>
         <v>132.95000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="83"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="83"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="17" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
@@ -2749,18 +2156,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="79"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="83"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
@@ -2773,18 +2180,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="79"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="83"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="30" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31">
@@ -2797,18 +2204,18 @@
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="79"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="83"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31">
@@ -2821,18 +2228,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="79"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="83"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="21" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
@@ -2845,16 +2252,16 @@
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="79"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="83"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -2869,20 +2276,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="97"/>
-      <c r="K16" s="79"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="83"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="84" t="s">
-        <v>62</v>
+      <c r="D17" s="81" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
@@ -2895,223 +2302,223 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="104">
-        <f>SUM(I17:I19)</f>
+      <c r="J17" s="101">
+        <f>SUM(I17:I20)</f>
         <v>36</v>
       </c>
-      <c r="K17" s="79"/>
+      <c r="K17" s="76"/>
     </row>
     <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="83"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="21" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H18" s="32">
         <v>2</v>
       </c>
       <c r="I18" s="33">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="79"/>
+        <v>8</v>
+      </c>
+      <c r="J18" s="93"/>
+      <c r="K18" s="76"/>
     </row>
     <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="83"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="21" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="32">
+      <c r="G19" s="36">
+        <v>4</v>
+      </c>
+      <c r="H19" s="36">
+        <v>2</v>
+      </c>
+      <c r="I19" s="35">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J19" s="93"/>
+      <c r="K19" s="76"/>
+    </row>
+    <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A20" s="80"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="16">
+        <v>11</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="32">
+        <v>4</v>
+      </c>
+      <c r="H20" s="32">
+        <v>2</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J20" s="94"/>
+      <c r="K20" s="76"/>
+    </row>
+    <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A21" s="34"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="16">
+        <v>12</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="32">
         <v>6</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H21" s="32">
         <v>2</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I21" s="33">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J19" s="97"/>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A20" s="34"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="16">
-        <v>11</v>
-      </c>
-      <c r="D20" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="32">
-        <v>6</v>
-      </c>
-      <c r="H20" s="32">
+      <c r="J21" s="95">
+        <f>SUM(I21:I24)</f>
+        <v>28.4</v>
+      </c>
+      <c r="K21" s="76"/>
+    </row>
+    <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A22" s="34"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="16">
+        <v>13</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="32">
         <v>2</v>
       </c>
-      <c r="I20" s="33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J20" s="98">
-        <f>SUM(I20:I23)</f>
-        <v>28.4</v>
-      </c>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A21" s="34"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="16">
-        <v>12</v>
-      </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="32">
-        <v>2</v>
-      </c>
-      <c r="H21" s="32">
+      <c r="H22" s="32">
         <v>1.6</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I22" s="33">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="79"/>
-    </row>
-    <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A22" s="34"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="16">
-        <v>13</v>
-      </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="32">
+      <c r="J22" s="95"/>
+      <c r="K22" s="76"/>
+    </row>
+    <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A23" s="34"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="16">
+        <v>14</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="32">
         <v>5</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H23" s="32">
         <v>2</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I23" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="79"/>
-    </row>
-    <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A23" s="34"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="16">
-        <v>14</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="32">
+      <c r="J23" s="95"/>
+      <c r="K23" s="76"/>
+    </row>
+    <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A24" s="34"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="16">
+        <v>15</v>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="32">
         <v>2</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H24" s="32">
         <v>1.6</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I24" s="33">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J23" s="98"/>
-      <c r="K23" s="79"/>
-    </row>
-    <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A24" s="34"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="16">
-        <v>15</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="32">
+      <c r="J24" s="95"/>
+      <c r="K24" s="76"/>
+    </row>
+    <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A25" s="34"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="16">
+        <v>16</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="32">
         <v>1.5</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H25" s="32">
         <v>1.5</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I25" s="33">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J24" s="104">
-        <f>SUM(I24:I26)</f>
+      <c r="J25" s="101">
+        <f>SUM(I25:I27)</f>
         <v>3.75</v>
       </c>
-      <c r="K24" s="79"/>
-    </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A25" s="34"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="16">
-        <v>16</v>
-      </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="33">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="J25" s="96"/>
-      <c r="K25" s="79"/>
+      <c r="K25" s="76"/>
     </row>
     <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
       <c r="A26" s="34"/>
-      <c r="B26" s="103"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="21" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="32">
@@ -3124,201 +2531,217 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="97"/>
-      <c r="K26" s="81"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="76"/>
     </row>
     <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="16">
+        <v>18</v>
+      </c>
+      <c r="D27" s="82"/>
+      <c r="E27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="I27" s="33">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J27" s="94"/>
+      <c r="K27" s="78"/>
+    </row>
+    <row r="28" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A28" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B28" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D28" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24">
+      <c r="E28" s="79"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24">
         <v>3</v>
-      </c>
-      <c r="H27" s="24">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29">
-        <f t="shared" ref="I27" si="1">G27*H27</f>
-        <v>3</v>
-      </c>
-      <c r="J27" s="82">
-        <f>SUM(I27:I28)</f>
-        <v>9</v>
-      </c>
-      <c r="K27" s="82"/>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="22">
-        <v>2</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="24">
-        <v>6</v>
       </c>
       <c r="H28" s="24">
         <v>1</v>
       </c>
-      <c r="I28" s="24">
-        <f>G28*H28</f>
+      <c r="I28" s="29">
+        <f t="shared" ref="I28" si="1">G28*H28</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="79">
+        <f>SUM(I28:I29)</f>
+        <v>9</v>
+      </c>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
+      <c r="A29" s="89"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="22">
+        <v>2</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="24">
         <v>6</v>
       </c>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="N28" s="20">
-        <f>SUM(J3,J6,K10,J27,I30,I31,I32)</f>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="24">
+        <f>G29*H29</f>
+        <v>6</v>
+      </c>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="N29" s="20">
+        <f>SUM(J3,J6,K10,J28,I31,I32,I33)</f>
         <v>240.95000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A29" s="84" t="s">
+    <row r="30" spans="1:14" s="20" customFormat="1" ht="37">
+      <c r="A30" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B30" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D30" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="27" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19">
-        <f>N28*0.149425</f>
-        <v>36.003953750000001</v>
-      </c>
-      <c r="J29" s="76">
-        <f>SUM(I29:I32)</f>
-        <v>89.103953750000002</v>
-      </c>
-      <c r="K29" s="77"/>
-    </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A30" s="96"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="16">
-        <v>2</v>
-      </c>
-      <c r="D30" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="98"/>
-      <c r="F30" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19">
+        <f>N29*0.149425</f>
+        <v>36.003953750000001</v>
+      </c>
+      <c r="J30" s="73">
+        <f>SUM(I30:I33)</f>
+        <v>89.103953750000002</v>
+      </c>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:14" s="20" customFormat="1" ht="55">
+      <c r="A31" s="93"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="95"/>
+      <c r="F31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19">
         <v>13</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
-    </row>
-    <row r="31" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A31" s="96"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="16">
+      <c r="J31" s="75"/>
+      <c r="K31" s="76"/>
+    </row>
+    <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
+      <c r="A32" s="93"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="16">
         <v>3</v>
       </c>
-      <c r="D31" s="99" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28">
+      <c r="D32" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="97"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28">
         <v>15.1</v>
       </c>
-      <c r="J31" s="78"/>
-      <c r="K31" s="79"/>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="97"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="16">
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
+    </row>
+    <row r="33" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A33" s="94"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="16">
         <v>4</v>
       </c>
-      <c r="D32" s="98" t="s">
+      <c r="D33" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19">
+      <c r="E33" s="95"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19">
         <v>25</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <v>1</v>
       </c>
-      <c r="I32" s="19">
-        <f>G32*H32</f>
+      <c r="I33" s="19">
+        <f>G33*H33</f>
         <v>25</v>
       </c>
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-    </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A33" s="86" t="s">
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+    </row>
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="18">
+      <c r="A34" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="69">
-        <f>SUM(N28,J29)</f>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="66">
+        <f>SUM(N29,J30)</f>
         <v>330.05395375000001</v>
       </c>
-      <c r="K33" s="69"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" s="4" customFormat="1">
+      <c r="K34" s="66"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" s="4" customFormat="1">
       <c r="D36" s="9"/>
@@ -3328,31 +2751,29 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="J38" s="1"/>
+    <row r="37" spans="1:11" s="4" customFormat="1">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="39" spans="1:11">
       <c r="F39" s="4"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11">
       <c r="F40" s="4"/>
-      <c r="G40" s="7"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
       <c r="F41" s="4"/>
       <c r="G41" s="7"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11">
       <c r="D42" s="11"/>
@@ -3362,6 +2783,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11">
       <c r="D43" s="11"/>
@@ -3466,38 +2888,47 @@
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="5"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="5"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
+    <row r="55" spans="4:10">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K10:K26"/>
-    <mergeCell ref="B10:B26"/>
-    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="K10:K27"/>
+    <mergeCell ref="B10:B27"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="J10:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="A10:A19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="D10:D16"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J30:K33"/>
+    <mergeCell ref="J28:K29"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="J29:K32"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -3522,220 +2953,407 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656BFDB5-BAC8-4BB0-8CB4-B3D4455992F3}">
-  <dimension ref="A1:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0860B3-CE02-D248-9ED4-DD089F3B5290}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1"/>
+    <sheetView topLeftCell="A21" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11" style="35" customWidth="1"/>
-    <col min="3" max="3" width="57.1640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="35" customWidth="1"/>
-    <col min="5" max="254" width="9" style="35" customWidth="1"/>
-    <col min="255" max="255" width="9" style="35" bestFit="1" customWidth="1"/>
-    <col min="256" max="16384" width="7.83203125" style="35"/>
+    <col min="1" max="2" width="26.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="97.83203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="49" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:6" ht="54">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="103">
+        <v>1</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="102">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" customHeight="1">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="103"/>
+      <c r="F3" s="102"/>
+    </row>
+    <row r="4" spans="1:6" ht="68" customHeight="1">
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="102"/>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="102"/>
+    </row>
+    <row r="6" spans="1:6" ht="39" customHeight="1">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="102"/>
+    </row>
+    <row r="7" spans="1:6" ht="46" customHeight="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="102"/>
+    </row>
+    <row r="8" spans="1:6" ht="37" customHeight="1">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-    </row>
-    <row r="2" spans="1:11" ht="46.25" customHeight="1">
-      <c r="A2" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="114">
+      <c r="E8" s="103"/>
+      <c r="F8" s="102"/>
+    </row>
+    <row r="9" spans="1:6" ht="71" customHeight="1">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="103"/>
+      <c r="F9" s="102"/>
+    </row>
+    <row r="10" spans="1:6" ht="76" customHeight="1">
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="103"/>
+      <c r="F10" s="102"/>
+    </row>
+    <row r="11" spans="1:6" ht="37" customHeight="1">
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="103"/>
+      <c r="F11" s="102"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="104">
+        <v>1</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="104">
         <v>136000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="49.25" customHeight="1">
-      <c r="A3" s="109"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="115"/>
-    </row>
-    <row r="4" spans="1:11" ht="54.5" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="115"/>
-    </row>
-    <row r="5" spans="1:11" ht="54" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="115"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="109"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="115"/>
-    </row>
-    <row r="7" spans="1:11" ht="48">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="115"/>
-    </row>
-    <row r="8" spans="1:11" ht="45.5" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="46" t="s">
+    <row r="13" spans="1:6" ht="20">
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+    </row>
+    <row r="16" spans="1:6" ht="40">
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+    </row>
+    <row r="18" spans="1:6" ht="20">
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+    </row>
+    <row r="19" spans="1:6" ht="40">
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+    </row>
+    <row r="20" spans="1:6" ht="20">
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+    </row>
+    <row r="23" spans="1:6" ht="20">
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+    </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="A24" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="51">
+        <v>2</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="108"/>
+      <c r="E24" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="324">
+      <c r="A25" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="51">
+        <v>9</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="51">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="81" customHeight="1">
+      <c r="A26" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="51">
+        <v>5</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="409" customHeight="1">
+      <c r="A27" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="51">
+        <v>12</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="107" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="51">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="115"/>
-    </row>
-    <row r="9" spans="1:11" ht="49.25" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="115"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.25" customHeight="1">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="115"/>
-    </row>
-    <row r="11" spans="1:11" ht="73.75" customHeight="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="115"/>
-    </row>
-    <row r="12" spans="1:11" ht="69" customHeight="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="115"/>
-    </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="110"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="116"/>
-    </row>
-    <row r="14" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A14" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="55">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A15" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="37">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="46.75" customHeight="1" thickBot="1">
-      <c r="A17" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="37">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.25" customHeight="1" thickBot="1">
-      <c r="A18" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="36">
-        <f>SUM(D17,D16,D15,D14,D2)</f>
-        <v>151000</v>
+      <c r="B30" s="106"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="52">
+        <f>SUM(F2:F29)</f>
+        <v>1248000</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="D2:D13"/>
+  <mergeCells count="11">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="E12:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
+++ b/附件2-谦比希铜矿东南矿体膏体充填智能化精准控制与三维可视化系统建设项目-预算.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FECF084-38C2-1745-BD80-2792D9906B8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A658B-0B29-8B4B-99E2-A4F75E46DB82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,19 +388,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>差旅费</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>软件测试</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,28 +398,6 @@
   </si>
   <si>
     <t>现场调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>约占项目经费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13%</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,38 +538,6 @@
   </si>
   <si>
     <t>搅拌机灰砂比智能测算算法研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每人次约10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>元，共计约13人次</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +696,227 @@
     <t>Nikon Rayfact IL 40mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>差旅费（除机票部分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人次约1万元，共计约13人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首先按合同总额的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.6%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计提技术市场服务费，其次再分段计提学校管理费，即：在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万元及以下部分按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计提，超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>部分按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计提，超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万部分按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计提。税费为合同总额*3.2621%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -771,7 +925,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -990,6 +1144,34 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1192,7 +1374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1271,9 +1453,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1346,6 +1525,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,6 +1664,9 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,25 +1685,21 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1852,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1876,30 +2064,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1912,25 +2100,25 @@
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="66" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="56"/>
+      <c r="D3" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="59"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14">
         <v>4</v>
@@ -1942,46 +2130,46 @@
         <f>G3*H3</f>
         <v>4</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="70">
         <f>SUM(I3:I5)</f>
         <v>19.5</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A4" s="64"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="56"/>
+      <c r="D4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="59"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>5</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <v>1.5</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="32">
         <f t="shared" ref="I4:I27" si="0">G4*H4</f>
         <v>7.5</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A5" s="64"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14">
         <v>4</v>
@@ -1989,27 +2177,27 @@
       <c r="H5" s="26">
         <v>2</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14">
         <v>3</v>
@@ -2017,26 +2205,26 @@
       <c r="H6" s="14">
         <v>1.3</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="32">
         <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="70">
         <f>SUM(I6:I9)</f>
         <v>26.4</v>
       </c>
-      <c r="K6" s="68"/>
+      <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A7" s="66"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="13"/>
       <c r="G7" s="14">
         <v>5</v>
@@ -2044,47 +2232,47 @@
       <c r="H7" s="14">
         <v>1.5</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A8" s="66"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>5</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <v>1.5</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="32">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A9" s="66"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="57"/>
+      <c r="D9" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="60"/>
       <c r="F9" s="13"/>
       <c r="G9" s="14">
         <v>5</v>
@@ -2092,176 +2280,176 @@
       <c r="H9" s="26">
         <v>1.5</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="98" t="s">
-        <v>31</v>
+      <c r="B10" s="102" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
-        <v>46</v>
+      <c r="D10" s="84" t="s">
+        <v>44</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="19">
         <v>8</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>2</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="105">
         <f>SUM(I10:I16)</f>
         <v>64.800000000000011</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K10" s="77">
         <f>SUM(J10:J27)</f>
         <v>132.95000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A11" s="80"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="16">
         <v>2</v>
       </c>
-      <c r="D11" s="80"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="19">
         <v>3</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="27">
         <v>1.6</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J11" s="93"/>
-      <c r="K11" s="76"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A12" s="80"/>
-      <c r="B12" s="99"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="16">
         <v>3</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="19">
         <v>3</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>1.6</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="76"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A13" s="80"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31">
+      <c r="D13" s="83"/>
+      <c r="E13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30">
         <v>3</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>1.6</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="32">
         <f t="shared" si="0"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="J13" s="93"/>
-      <c r="K13" s="76"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A14" s="80"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16">
         <v>5</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31">
+      <c r="D14" s="83"/>
+      <c r="E14" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>10</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>2</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="76"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A15" s="80"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="16">
         <v>6</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19">
         <v>4</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>1.6</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="76"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A16" s="80"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="16">
         <v>7</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
@@ -2272,306 +2460,306 @@
       <c r="H16" s="19">
         <v>2</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="76"/>
-    </row>
-    <row r="17" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A17" s="80"/>
-      <c r="B17" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="79"/>
+    </row>
+    <row r="17" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A17" s="83"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="16">
         <v>8</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="19">
         <v>6</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="27">
         <v>2</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J17" s="101">
+      <c r="J17" s="105">
         <f>SUM(I17:I20)</f>
         <v>36</v>
       </c>
-      <c r="K17" s="76"/>
-    </row>
-    <row r="18" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A18" s="80"/>
-      <c r="B18" s="99"/>
+      <c r="K17" s="79"/>
+    </row>
+    <row r="18" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A18" s="83"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="16">
         <v>9</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="32">
+      <c r="G18" s="31">
         <v>4</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>2</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="76"/>
-    </row>
-    <row r="19" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A19" s="80"/>
-      <c r="B19" s="99"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="79"/>
+    </row>
+    <row r="19" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A19" s="83"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="16">
         <v>10</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>4</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>2</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J19" s="93"/>
-      <c r="K19" s="76"/>
-    </row>
-    <row r="20" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A20" s="80"/>
-      <c r="B20" s="99"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="79"/>
+    </row>
+    <row r="20" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A20" s="83"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="32">
+      <c r="G20" s="31">
         <v>4</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>2</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="76"/>
-    </row>
-    <row r="21" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A21" s="34"/>
-      <c r="B21" s="99"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A21" s="33"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="16">
         <v>12</v>
       </c>
-      <c r="D21" s="81" t="s">
-        <v>55</v>
+      <c r="D21" s="84" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="18"/>
-      <c r="G21" s="32">
+      <c r="G21" s="31">
         <v>6</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="31">
         <v>2</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="J21" s="95">
+      <c r="J21" s="98">
         <f>SUM(I21:I24)</f>
         <v>28.4</v>
       </c>
-      <c r="K21" s="76"/>
-    </row>
-    <row r="22" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A22" s="34"/>
-      <c r="B22" s="99"/>
+      <c r="K21" s="79"/>
+    </row>
+    <row r="22" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A22" s="33"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="16">
         <v>13</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F22" s="18"/>
-      <c r="G22" s="32">
+      <c r="G22" s="31">
         <v>2</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="31">
         <v>1.6</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J22" s="95"/>
-      <c r="K22" s="76"/>
-    </row>
-    <row r="23" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A23" s="34"/>
-      <c r="B23" s="99"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="79"/>
+    </row>
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A23" s="33"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="16">
         <v>14</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="32">
+      <c r="G23" s="31">
         <v>5</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="31">
         <v>2</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="76"/>
-    </row>
-    <row r="24" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A24" s="34"/>
-      <c r="B24" s="99"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="79"/>
+    </row>
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A24" s="33"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="16">
         <v>15</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="32">
+      <c r="G24" s="31">
         <v>2</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="31">
         <v>1.6</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="76"/>
-    </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A25" s="34"/>
-      <c r="B25" s="99"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="79"/>
+    </row>
+    <row r="25" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A25" s="33"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="16">
         <v>16</v>
       </c>
-      <c r="D25" s="81" t="s">
-        <v>56</v>
+      <c r="D25" s="84" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="18"/>
-      <c r="G25" s="32">
+      <c r="G25" s="31">
         <v>1.5</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="31">
         <v>1.5</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="J25" s="101">
+      <c r="J25" s="105">
         <f>SUM(I25:I27)</f>
         <v>3.75</v>
       </c>
-      <c r="K25" s="76"/>
-    </row>
-    <row r="26" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A26" s="34"/>
-      <c r="B26" s="99"/>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A26" s="33"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="16">
         <v>17</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="32">
+      <c r="G26" s="31">
         <v>0.5</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="31">
         <v>1.5</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="76"/>
-    </row>
-    <row r="27" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A27" s="34"/>
-      <c r="B27" s="100"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A27" s="33"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="16">
         <v>18</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="32">
+      <c r="G27" s="31">
         <v>0.5</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="31">
         <v>1.5</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="78"/>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A28" s="88" t="s">
+      <c r="J27" s="97"/>
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A28" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="22">
         <v>1</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="82"/>
       <c r="F28" s="23"/>
       <c r="G28" s="24">
         <v>3</v>
@@ -2579,26 +2767,26 @@
       <c r="H28" s="24">
         <v>1</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="28">
         <f t="shared" ref="I28" si="1">G28*H28</f>
         <v>3</v>
       </c>
-      <c r="J28" s="79">
+      <c r="J28" s="82">
         <f>SUM(I28:I29)</f>
         <v>9</v>
       </c>
-      <c r="K28" s="79"/>
-    </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" ht="77.5" customHeight="1">
-      <c r="A29" s="89"/>
-      <c r="B29" s="87"/>
+      <c r="K28" s="82"/>
+    </row>
+    <row r="29" spans="1:11" s="20" customFormat="1" ht="77.5" customHeight="1">
+      <c r="A29" s="92"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="22">
         <v>2</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="79"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="23" t="s">
         <v>23</v>
       </c>
@@ -2612,92 +2800,88 @@
         <f>G29*H29</f>
         <v>6</v>
       </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="N29" s="20">
-        <f>SUM(J3,J6,K10,J28,I31,I32,I33)</f>
-        <v>240.95000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="20" customFormat="1" ht="37">
-      <c r="A30" s="81" t="s">
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+    </row>
+    <row r="30" spans="1:11" s="20" customFormat="1" ht="215">
+      <c r="A30" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="93" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="27" t="s">
-        <v>30</v>
+      <c r="E30" s="98"/>
+      <c r="F30" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19">
-        <f>N29*0.149425</f>
-        <v>36.003953750000001</v>
-      </c>
-      <c r="J30" s="73">
+        <f>29.2+10.45</f>
+        <v>39.65</v>
+      </c>
+      <c r="J30" s="76">
         <f>SUM(I30:I33)</f>
-        <v>89.103953750000002</v>
-      </c>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:14" s="20" customFormat="1" ht="55">
-      <c r="A31" s="93"/>
-      <c r="B31" s="91"/>
+        <v>132.15</v>
+      </c>
+      <c r="K30" s="77"/>
+    </row>
+    <row r="31" spans="1:11" s="20" customFormat="1" ht="54">
+      <c r="A31" s="96"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="16">
         <v>2</v>
       </c>
-      <c r="D31" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="25" t="s">
-        <v>66</v>
+      <c r="D31" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="98"/>
+      <c r="F31" s="54" t="s">
+        <v>98</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19">
         <v>13</v>
       </c>
-      <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
-    </row>
-    <row r="32" spans="1:14" s="20" customFormat="1" ht="18">
-      <c r="A32" s="93"/>
-      <c r="B32" s="91"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+    </row>
+    <row r="32" spans="1:11" s="20" customFormat="1" ht="18">
+      <c r="A32" s="96"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="16">
         <v>3</v>
       </c>
-      <c r="D32" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="97"/>
+      <c r="D32" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="101"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28">
-        <v>15.1</v>
-      </c>
-      <c r="J32" s="75"/>
-      <c r="K32" s="76"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27">
+        <v>54.5</v>
+      </c>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
     </row>
     <row r="33" spans="1:11" s="20" customFormat="1" ht="18">
-      <c r="A33" s="94"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="16">
         <v>4</v>
       </c>
-      <c r="D33" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="95"/>
+      <c r="D33" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="98"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19">
         <v>25</v>
@@ -2709,26 +2893,26 @@
         <f>G33*H33</f>
         <v>25</v>
       </c>
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="18">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="66">
-        <f>SUM(N29,J30)</f>
-        <v>330.05395375000001</v>
-      </c>
-      <c r="K34" s="66"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="69">
+        <f>SUM(J3,J6,K10,J28,J30)</f>
+        <v>320</v>
+      </c>
+      <c r="K34" s="69"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4"/>
@@ -2962,379 +3146,379 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="97.83203125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="97.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="37"/>
+    <col min="1" max="2" width="26.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="97.83203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1">
+      <c r="A2" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="107">
+        <v>1</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="108">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="35" customHeight="1">
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+    </row>
+    <row r="4" spans="1:6" ht="68" customHeight="1">
+      <c r="A4" s="107"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="107"/>
+      <c r="F4" s="108"/>
+    </row>
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="107"/>
+      <c r="F5" s="108"/>
+    </row>
+    <row r="6" spans="1:6" ht="39" customHeight="1">
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+    </row>
+    <row r="7" spans="1:6" ht="46" customHeight="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="108"/>
+    </row>
+    <row r="8" spans="1:6" ht="37" customHeight="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+    </row>
+    <row r="9" spans="1:6" ht="71" customHeight="1">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
+    </row>
+    <row r="10" spans="1:6" ht="76" customHeight="1">
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+    </row>
+    <row r="11" spans="1:6" ht="37" customHeight="1">
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="109">
+        <v>1</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F12" s="109">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20">
+      <c r="A13" s="109"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="109"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+    </row>
+    <row r="16" spans="1:6" ht="40">
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+    </row>
+    <row r="18" spans="1:6" ht="20">
+      <c r="A18" s="109"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+    </row>
+    <row r="19" spans="1:6" ht="40">
+      <c r="A19" s="109"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+    </row>
+    <row r="20" spans="1:6" ht="20">
+      <c r="A20" s="109"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+    </row>
+    <row r="21" spans="1:6" ht="60">
+      <c r="A21" s="109"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+    </row>
+    <row r="23" spans="1:6" ht="20">
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+    </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="A24" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="50">
+        <v>2</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="50">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="324">
+      <c r="A25" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="50">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="50">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="81" customHeight="1">
+      <c r="A26" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="50">
+        <v>5</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="409" customHeight="1">
+      <c r="A27" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="50">
+        <v>12</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="50">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="33" customHeight="1">
-      <c r="A2" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="103">
-        <v>1</v>
-      </c>
-      <c r="C2" s="103" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="102">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="102"/>
-    </row>
-    <row r="4" spans="1:6" ht="68" customHeight="1">
-      <c r="A4" s="103"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="102"/>
-    </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="102"/>
-    </row>
-    <row r="6" spans="1:6" ht="39" customHeight="1">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="102"/>
-    </row>
-    <row r="7" spans="1:6" ht="46" customHeight="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="102"/>
-    </row>
-    <row r="8" spans="1:6" ht="37" customHeight="1">
-      <c r="A8" s="103"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="103"/>
-      <c r="F8" s="102"/>
-    </row>
-    <row r="9" spans="1:6" ht="71" customHeight="1">
-      <c r="A9" s="103"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="102"/>
-    </row>
-    <row r="10" spans="1:6" ht="76" customHeight="1">
-      <c r="A10" s="103"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="102"/>
-    </row>
-    <row r="11" spans="1:6" ht="37" customHeight="1">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="102"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="A12" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="104">
-        <v>1</v>
-      </c>
-      <c r="C12" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="104">
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-    </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="104"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-    </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-    </row>
-    <row r="16" spans="1:6" ht="40">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-    </row>
-    <row r="18" spans="1:6" ht="20">
-      <c r="A18" s="104"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-    </row>
-    <row r="19" spans="1:6" ht="40">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-    </row>
-    <row r="20" spans="1:6" ht="20">
-      <c r="A20" s="104"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-    </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-    </row>
-    <row r="22" spans="1:6" ht="60">
-      <c r="A22" s="104"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-    </row>
-    <row r="23" spans="1:6" ht="20">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-    </row>
-    <row r="24" spans="1:6" ht="27">
-      <c r="A24" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="51">
-        <v>2</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="108"/>
-      <c r="E24" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="51">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="324">
-      <c r="A25" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="51">
-        <v>9</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="51">
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="81" customHeight="1">
-      <c r="A26" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="51">
-        <v>5</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="409" customHeight="1">
-      <c r="A27" s="51" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="51">
-        <v>12</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="107" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="51">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50">
         <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="106"/>
       <c r="C30" s="106"/>
       <c r="D30" s="106"/>
       <c r="E30" s="106"/>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <f>SUM(F2:F29)</f>
         <v>1248000</v>
       </c>
